--- a/1.RDBMS/JAVA15 - VANDO - Database Design.xlsx
+++ b/1.RDBMS/JAVA15 - VANDO - Database Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,88 +19,166 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t>THONGTINMATHANG</t>
-  </si>
-  <si>
-    <t>MATHANG</t>
-  </si>
-  <si>
-    <t>HOADON</t>
-  </si>
-  <si>
-    <t>NHANVIEN</t>
-  </si>
-  <si>
-    <t>DONHANG</t>
-  </si>
-  <si>
-    <t>THONGTINDONHANG</t>
-  </si>
-  <si>
-    <t>MAMH</t>
-  </si>
-  <si>
-    <t>TENMH</t>
-  </si>
-  <si>
-    <t>KHANHHANG</t>
-  </si>
-  <si>
-    <t>MAKH</t>
-  </si>
-  <si>
-    <t>TENKH</t>
-  </si>
-  <si>
-    <t>DIACHI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>SDT</t>
   </si>
   <si>
-    <t>MAHD</t>
-  </si>
-  <si>
-    <t>MANV</t>
-  </si>
-  <si>
-    <t>TENNV</t>
-  </si>
-  <si>
-    <t>MADH</t>
-  </si>
-  <si>
-    <t>GIABAN</t>
-  </si>
-  <si>
-    <t>NGAYTAO</t>
-  </si>
-  <si>
-    <t>GIA</t>
-  </si>
-  <si>
-    <t>SIZE</t>
-  </si>
-  <si>
-    <t>GIAMUA</t>
-  </si>
-  <si>
-    <t>DIACHIGIAO</t>
-  </si>
-  <si>
-    <t>SDTNGUOINHAN</t>
-  </si>
-  <si>
-    <t>SOLUONG</t>
+    <t>LoaiHang</t>
+  </si>
+  <si>
+    <t>HoaDon</t>
+  </si>
+  <si>
+    <t>MatHang</t>
+  </si>
+  <si>
+    <t>DonHang</t>
+  </si>
+  <si>
+    <t>TinhTrangDonHang</t>
+  </si>
+  <si>
+    <t>ChiTietTinhTrangDonHang</t>
+  </si>
+  <si>
+    <t>KhachHang</t>
+  </si>
+  <si>
+    <t>NhanVien</t>
+  </si>
+  <si>
+    <t>NhaSanXuat</t>
+  </si>
+  <si>
+    <t>MaLH</t>
+  </si>
+  <si>
+    <t>MaHD</t>
+  </si>
+  <si>
+    <t>MaMH</t>
+  </si>
+  <si>
+    <t>MaDH</t>
+  </si>
+  <si>
+    <t>MaTT</t>
+  </si>
+  <si>
+    <t>MaKH</t>
+  </si>
+  <si>
+    <t>MaNV</t>
+  </si>
+  <si>
+    <t>MaNSX</t>
+  </si>
+  <si>
+    <t>TenLH</t>
+  </si>
+  <si>
+    <t>ChatLieu</t>
+  </si>
+  <si>
+    <t>MoTa</t>
+  </si>
+  <si>
+    <t>TinhTrang</t>
+  </si>
+  <si>
+    <t>TenKH</t>
+  </si>
+  <si>
+    <t>TenNV</t>
+  </si>
+  <si>
+    <t>TenNSX</t>
+  </si>
+  <si>
+    <t>SoTienCanThanhToan</t>
+  </si>
+  <si>
+    <t>MauSac</t>
+  </si>
+  <si>
+    <t>DanhSachMatHang</t>
+  </si>
+  <si>
+    <t>ThoiGian</t>
+  </si>
+  <si>
+    <t>DiaChi</t>
+  </si>
+  <si>
+    <t>NgayXuatHoaDon</t>
+  </si>
+  <si>
+    <t>HinhAnh</t>
+  </si>
+  <si>
+    <t>MatHang - SoLuong</t>
+  </si>
+  <si>
+    <t>NguoiPhuTrach</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>NgayDatHang</t>
+  </si>
+  <si>
+    <t>GiaBan</t>
+  </si>
+  <si>
+    <t>DiaChiGiaoHang</t>
+  </si>
+  <si>
+    <t>TaiKhoanMXH</t>
+  </si>
+  <si>
+    <t>TaiKhoan</t>
+  </si>
+  <si>
+    <t>NgayThamGia</t>
+  </si>
+  <si>
+    <t>GiaMua</t>
+  </si>
+  <si>
+    <t>SDTNguoiNhan</t>
+  </si>
+  <si>
+    <t>DanhSachDonHang</t>
+  </si>
+  <si>
+    <t>MatKhau</t>
+  </si>
+  <si>
+    <t>KichThuoc</t>
+  </si>
+  <si>
+    <t>LoaiHinhThanhToan</t>
+  </si>
+  <si>
+    <t>TenMH</t>
+  </si>
+  <si>
+    <t>TongTien</t>
+  </si>
+  <si>
+    <t>SoLuong</t>
+  </si>
+  <si>
+    <t>KhuyenMai-ThoiGian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,7 +188,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,7 +217,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -153,16 +246,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,124 +537,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:M9"/>
+  <dimension ref="E11:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G14:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
+      <c r="H16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>